--- a/pred_ohlcv/54_21/2020-01-14 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 AMO ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-6402296.125199997</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6902366.106199997</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7165114.740199996</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-7122735.928199995</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-3446758.116299996</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3039921.521299996</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4349242.908299997</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-1429894.470299997</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2645982.471299997</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3895973.521299996</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3963779.620299996</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5332431.344299996</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2442564.174299996</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3539991.501299996</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4467903.581299996</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3798318.353299996</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2828027.461299996</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1837739.236799996</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3045351.474799996</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1998778.721799996</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3011448.425799996</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3863078.643799996</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1168154.008799996</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2274057.098799996</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-761317.4147999962</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>158118.9022000039</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1382682.665200004</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>683616.1702000039</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1772567.735200004</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>827704.1302000037</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2298065.002200004</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>836179.8922000036</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1696285.873200004</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>717519.2192000035</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1731608.306799997</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3032453.930799996</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2265581.335799997</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3015502.405799997</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2291008.622799996</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1875696.266799996</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2812084.108799996</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2079114.563799996</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3074832.742799996</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3943414.485799996</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3108735.791799996</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2506956.662799996</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3824753.811799997</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3066356.979799997</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3782374.999799997</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2752753.771799996</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1299344.424799996</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1858744.741799996</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-591802.1667999965</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1392577.810799996</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-549423.3547999964</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1951978.127799996</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3447766.286799996</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2536805.731799996</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1278338.918799996</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3608805.771799996</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4723184.623799996</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3600330.009799996</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4680805.812799997</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6032506.011799997</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4748611.911799997</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6193545.496799997</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7070603.001799997</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-5896893.812799997</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4519766.326799996</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3329105.612799997</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2291008.621799997</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3346057.136799997</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2019784.224799997</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2845987.155799997</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2964647.828799997</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4197687.353799997</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3422338.996799997</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4426532.937799997</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3524048.144799997</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4596048.184799997</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3413863.233799997</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4562145.135799997</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5303590.442799998</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3994269.055799997</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4701811.313799998</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3536577.887799998</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2142498.876799998</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2934798.758799998</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1794992.619799998</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3011080.620799998</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2714428.937799998</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4083080.661799998</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2697477.413799997</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4218692.859799998</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5722956.781799998</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4625529.454799999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3697617.374799998</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5184929.771799998</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6477299.633799998</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5659572.464799998</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6629863.356799998</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5642620.940799998</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6850233.178799998</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5803660.425799998</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-6816330.129799997</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5964699.911799997</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7324875.872799997</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-6634285.139799997</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5299536.465799997</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-6405439.555799996</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4892699.871799996</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5812136.188799996</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4587572.425799996</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3888505.930799996</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4977457.495799996</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4032593.890799996</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5502954.762799996</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4041069.652799996</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3180963.671799995</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4159730.325799996</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3138584.859799996</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1608893.650799996</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3036875.710799996</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1736030.086799996</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2502902.681799996</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1752981.611799996</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-998638.7607999961</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2240154.048799996</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1176629.770799996</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2113017.612799997</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-509522.1240999966</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1344200.818099997</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2153452.224099996</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-716994.4010999964</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2136500.699099996</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3626492.776699996</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2308695.627699996</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3067092.459699996</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3783110.479699996</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4812731.707699996</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3359322.360699996</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2575498.241699996</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3537313.370699996</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2194088.934699996</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-927146.3596999964</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-924089.7073999965</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1724865.351399996</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2568019.807399997</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3970574.580399997</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2474786.421399997</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2472824.350899997</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3383784.905899997</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2125318.092899997</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-926181.6168999968</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2057511.993899997</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-943133.1418999969</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2065987.755899997</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1862569.458899997</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3307503.043899997</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>5496587.123800004</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4621600.251700004</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3244472.765700004</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3246479.937400003</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2055819.223400004</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3095868.861600004</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2040820.346600004</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2042840.112100004</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>716567.2001000037</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>718858.8207000038</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-107344.1102999962</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-105414.3645999962</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1262172.028599996</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2156181.058599996</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-880762.7215999963</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-2113802.246599996</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2889150.603599996</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-3893344.544599996</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-2987953.927399997</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4059953.967399997</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2877769.016399997</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4026050.918399997</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4767496.225399997</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-2750632.580399997</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1585399.154399997</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-191320.1433999971</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-983620.0253999971</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>156186.1136000028</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-1059901.887399997</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>190089.162600003</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-695444.1053999971</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>257895.2616000029</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>653998.247300003</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-714653.476699997</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>670949.7713000029</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2192165.217300003</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>3696429.139300003</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>3696429.139300003</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>4624341.219300003</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>4624341.219300003</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>4302262.249300003</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3315019.833300003</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>4522632.071300003</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3478155.593000003</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4490825.297000003</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3639195.079000003</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>4999371.040000003</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>4308780.307000003</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2971017.668600003</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1862100.614200003</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3374840.298200003</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>2455403.981200003</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>2452390.016800003</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3673505.236100004</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7082466.926500004</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>7102531.783600003</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6157668.178600004</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4687307.306600004</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3025722.196600004</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>3885828.177600004</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2907061.523600004</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1885916.057600004</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3415607.266600004</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4843589.326600004</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6144434.950600004</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>5377562.355600004</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6127483.425600004</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>5402989.642600005</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>5818301.998600005</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>6754689.840600005</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>7487659.385600005</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6745081.183099995</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-10981460.8941</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-11902599.3417</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-11868696.29269999</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-12487426.9467</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-11925630.5463</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-37751755.76499999</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-38603385.98299999</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-41298310.61799999</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-39959507.96299999</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-38980741.30899999</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-40001886.77499999</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-41429868.83499999</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-42730714.45899999</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-46821335.03840002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-47628162.51610002</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-53375875.79680002</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-52374220.03034982</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-51958470.72750002</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-50615246.29150002</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-49348303.71650002</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-66227205.83265018</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-67019505.71465018</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-65845796.52665018</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-64960263.25865018</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-62244856.16075019</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-73120365.92995024</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-71989035.55295023</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-73103414.40495023</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-71980559.79095024</v>
       </c>
       <c r="H549">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-70005011.76075026</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-69102526.96775027</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-70284711.91875027</v>
       </c>
       <c r="H674">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-70282489.91875027</v>
       </c>
       <c r="H675">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-69541044.61175027</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-81316659.06985025</v>
       </c>
       <c r="H689">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-82558174.35785025</v>
       </c>
       <c r="H690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H696">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H697">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H698">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H699">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H700">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-82915988.35785024</v>
       </c>
       <c r="H701">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-83945609.58585024</v>
       </c>
       <c r="H702">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-84661627.60585023</v>
       </c>
       <c r="H703">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-83326878.93185024</v>
       </c>
       <c r="H704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-82627812.43685023</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-81310015.28785023</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-82568482.10085022</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-83530297.22985022</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-83544248.22985022</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-82217975.31785022</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-80804689.78285022</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-81622416.95185022</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-80787738.25785021</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-81986874.73385021</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-82614710.2316502</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H719">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-80884047.7840502</v>
       </c>
       <c r="H720">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-81752629.5270502</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-82699172.7052502</v>
       </c>
       <c r="H722">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-81779736.3882502</v>
       </c>
       <c r="H723">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-84349377.1126502</v>
       </c>
       <c r="H724">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-83268901.3096502</v>
       </c>
       <c r="H725">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-85366712.5186502</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 AMO ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 AMO ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>-6402296.125199997</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-8059123.770199996</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7165114.740199996</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-7122735.928199995</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-3039921.521299996</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-4349242.908299997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-290088.3312999967</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-2645982.471299997</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-3895973.521299996</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-3963779.620299996</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-5332431.344299996</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-2442564.174299996</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3539991.501299996</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-4467903.581299996</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-3798318.353299996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2828027.461299996</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-1837739.236799996</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-3045351.474799996</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-1998778.721799996</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-3011448.425799996</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-3863078.643799996</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-1168154.008799996</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-2274057.098799996</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-761317.4147999962</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>158118.9022000039</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>1382682.665200004</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>683616.1702000039</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>1772567.735200004</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>827704.1302000037</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2298065.002200004</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>836179.8922000036</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>1696285.873200004</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>717519.2192000035</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1731608.306799997</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-3032453.930799996</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-2265581.335799997</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-3015502.405799997</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-2291008.622799996</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1875696.266799996</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2812084.108799996</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2079114.563799996</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-3074832.742799996</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-3943414.485799996</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-3108735.791799996</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-2506956.662799996</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-3824753.811799997</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3066356.979799997</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3782374.999799997</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-2752753.771799996</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1299344.424799996</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1858744.741799996</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-591802.1667999965</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-1392577.810799996</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-549423.3547999964</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-1951978.127799996</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3447766.286799996</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-2536805.731799996</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-1278338.918799996</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3608805.771799996</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-4723184.623799996</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3600330.009799996</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-4680805.812799997</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-6032506.011799997</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-4748611.911799997</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-6193545.496799997</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-7070603.001799997</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-5896893.812799997</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-4519766.326799996</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-3329105.612799997</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-2291008.621799997</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-3346057.136799997</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-2019784.224799997</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-2845987.155799997</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2964647.828799997</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-4197687.353799997</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-3422338.996799997</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-4426532.937799997</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-3524048.144799997</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4596048.184799997</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-3413863.233799997</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-4562145.135799997</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-5303590.442799998</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-3994269.055799997</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-4701811.313799998</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-3536577.887799998</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-2142498.876799998</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-2934798.758799998</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1794992.619799998</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-3011080.620799998</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-2714428.937799998</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-4083080.661799998</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2697477.413799997</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-4218692.859799998</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-5722956.781799998</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4625529.454799999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-3697617.374799998</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5184929.771799998</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-6477299.633799998</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5659572.464799998</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-6629863.356799998</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5642620.940799998</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-6850233.178799998</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5803660.425799998</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-6816330.129799997</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5964699.911799997</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-7324875.872799997</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-6634285.139799997</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5299536.465799997</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-6405439.555799996</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4892699.871799996</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5812136.188799996</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-4587572.425799996</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-3888505.930799996</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-4977457.495799996</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4032593.890799996</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5502954.762799996</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4041069.652799996</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-3180963.671799995</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-4159730.325799996</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-3138584.859799996</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1608893.650799996</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-3036875.710799996</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-1736030.086799996</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2502902.681799996</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-1752981.611799996</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-998638.7607999961</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-2240154.048799996</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-1176629.770799996</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-2113017.612799997</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-509522.1240999966</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1344200.818099997</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-2153452.224099996</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-716994.4010999964</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2136500.699099996</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-3626492.776699996</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-2308695.627699996</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-3067092.459699996</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-3783110.479699996</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-4812731.707699996</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-3359322.360699996</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-2575498.241699996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-3537313.370699996</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-2194088.934699996</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-927146.3596999964</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-924089.7073999965</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-1724865.351399996</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-2568019.807399997</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-3970574.580399997</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-2474786.421399997</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-2472824.350899997</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-3383784.905899997</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-2125318.092899997</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-926181.6168999968</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-2057511.993899997</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-943133.1418999969</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-2065987.755899997</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-1862569.458899997</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-3307503.043899997</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>5496587.123800004</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>4621600.251700004</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>3244472.765700004</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>3246479.937400003</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>2055819.223400004</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>3095868.861600004</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>2040820.346600004</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>2042840.112100004</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>716567.2001000037</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>718858.8207000038</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-107344.1102999962</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-105414.3645999962</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-1262172.028599996</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2156181.058599996</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-4059953.967399997</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-2877769.016399997</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-4026050.918399997</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-4767496.225399997</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>190089.162600003</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-714653.476699997</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>4624341.219300003</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>3315019.833300003</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>3478155.593000003</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>4490825.297000003</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>3639195.079000003</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>4999371.040000003</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>4308780.307000003</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>2971017.668600003</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>1862100.614200003</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>3374840.298200003</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>3673505.236100004</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>7082466.926500004</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>7102531.783600003</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>6157668.178600004</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>4687307.306600004</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>3025722.196600004</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>2907061.523600004</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>1885916.057600004</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>3415607.266600004</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>4843589.326600004</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>6144434.950600004</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>5377562.355600004</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>6127483.425600004</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>5402989.642600005</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>5818301.998600005</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>6754689.840600005</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-6745081.183099995</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-10981460.8941</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-37751755.76499999</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-38603385.98299999</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-41298310.61799999</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-39959507.96299999</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-38980741.30899999</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-40001886.77499999</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-41429868.83499999</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-42730714.45899999</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-46821335.03840002</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-47628162.51610002</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-53375875.79680002</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-52374220.03034982</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-51958470.72750002</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-50615246.29150002</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-49348303.71650002</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-66227205.83265018</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-67019505.71465018</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-65845796.52665018</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-64960263.25865018</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-62244856.16075019</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-74319502.40595023</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-73120365.92995024</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-71989035.55295023</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-73103414.40495023</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-71980559.79095024</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-71777141.49395025</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-73222075.07895024</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-73111890.16695024</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-70058085.96495026</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-66159970.87495027</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-82915988.35785024</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-83945609.58585024</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-84661627.60585023</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-83326878.93185024</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-82627812.43685023</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-81310015.28785023</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-82568482.10085022</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-83530297.22985022</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-83544248.22985022</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-82217975.31785022</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-80804689.78285022</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-81622416.95185022</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-80787738.25785021</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-81986874.73385021</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-82614710.2316502</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-80884047.7840502</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-81752629.5270502</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-82699172.7052502</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-81779736.3882502</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-84349377.1126502</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-83268901.3096502</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-85366712.5186502</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
